--- a/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\data.sps-prosek.local\popovsa22\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D7BA7A-D996-4735-BA8B-729CB45D162B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F7772-BCEB-4770-BC6D-9568D0AC60E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t xml:space="preserve">https://bit.ly/3Fn61Bc </t>
   </si>
@@ -64,13 +75,31 @@
   </si>
   <si>
     <t>Vývojová deska ESP32</t>
+  </si>
+  <si>
+    <t>Laska kit</t>
+  </si>
+  <si>
+    <t>H-můstek TB6612FNG</t>
+  </si>
+  <si>
+    <t>https://www.laskakit.cz/dvoumotorovy-radic-tb6612fng/?gclid=Cj0KCQiAlKmeBhCkARIsAHy7WVuNh7z5h8IRajd8BqgRfK04_7RggMTipGvV0tUPsLPUbRQILlqR0AQaAup6EALw_wcB</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3MQa25Y</t>
+  </si>
+  <si>
+    <t>BEZ TME</t>
+  </si>
+  <si>
+    <t>S TME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,7 +151,7 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,23 +160,57 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF0070C0"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E353B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,16 +219,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -177,20 +240,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -205,36 +285,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -665,44 +771,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D745B4-2266-4135-9D72-2FA50B106E4C}">
-  <dimension ref="C4:Y34"/>
+  <dimension ref="E4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:17">
+    <row r="4" spans="5:17" ht="15" thickBot="1">
       <c r="G4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="5:17">
-      <c r="E5" s="3" t="s">
+    <row r="5" spans="5:17" ht="15" thickBot="1">
+      <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -716,24 +822,34 @@
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="16">
         <v>10</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="16">
         <v>16.670000000000002</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="16">
         <f>I6*H6</f>
         <v>166.70000000000002</v>
       </c>
     </row>
     <row r="7" spans="5:17">
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="J7">
+        <f>H7*I7</f>
+        <v>655.20000000000005</v>
+      </c>
     </row>
     <row r="9" spans="5:17">
       <c r="G9" s="1"/>
@@ -741,335 +857,253 @@
     <row r="10" spans="5:17">
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="5:17" ht="15.75">
-      <c r="G12" s="5" t="s">
+    <row r="12" spans="5:17" ht="16" thickBot="1">
+      <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="5:17">
-      <c r="E13" s="15" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="5:17" ht="15" thickBot="1">
+      <c r="E13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="5:17" ht="15.75">
-      <c r="E14" s="9" t="s">
+    </row>
+    <row r="14" spans="5:17" ht="15.5">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="3">
         <v>207</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="3">
+        <f>H14*I14</f>
         <v>414</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15" spans="5:17">
-      <c r="G15" s="10"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="5:17">
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="19" spans="3:25">
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="3:25">
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="3:25">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="3:25">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="3:25" ht="15.75">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="3:25" ht="15.75">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="3:25" ht="15.75">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-    </row>
-    <row r="26" spans="3:25" ht="15.75">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="3:25" ht="15.75">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="3:25" ht="15.75">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="3:25" ht="15.75">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="3:25" ht="15.75">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="3:25">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="3:25">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="3:13">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="3:13">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="17" spans="5:13">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="5:13" ht="16" thickBot="1">
+      <c r="G18" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" ht="15" thickBot="1">
+      <c r="E19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" ht="15.5">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>278</v>
+      </c>
+      <c r="J20" s="3">
+        <f>H20*I20</f>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" s="7"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="23" spans="5:13" ht="15.5">
+      <c r="I23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="3">
+        <f>SUM(J6:J20)</f>
+        <v>1791.9</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="5:13" ht="15.5">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="5:13" ht="15.5">
+      <c r="G25" s="5"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="5:13" ht="15.5">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3">
+        <f>SUM(J14:J20)</f>
+        <v>970</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="5:13" ht="15.5">
+      <c r="G27" s="4"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="5:13" ht="15.5">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="5:13" ht="15.5">
+      <c r="G29" s="6"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="5:13" ht="15.5">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F25 F15:F17 F9:F11 F6:F7">
-    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="Koupeno">
+  <conditionalFormatting sqref="F9:F11 F25 F6:F7">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="K nákupu">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="K nákupu">
       <formula>NOT(ISERROR(SEARCH("K nákupu",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Koupeno">
+      <formula>NOT(ISERROR(SEARCH("Koupeno",F29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Na cestě">
+      <formula>NOT(ISERROR(SEARCH("Na cestě",F29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="K nákupu">
+      <formula>NOT(ISERROR(SEARCH("K nákupu",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:G23">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Koupeno">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="K nákupu">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="K nákupu">
       <formula>NOT(ISERROR(SEARCH("K nákupu",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="L14 F14:F17">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Koupeno">
-      <formula>NOT(ISERROR(SEARCH("Koupeno",F29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Koupeno",F14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Na cestě">
-      <formula>NOT(ISERROR(SEARCH("Na cestě",F29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Na cestě",F14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="K nákupu">
-      <formula>NOT(ISERROR(SEARCH("K nákupu",F29)))</formula>
+      <formula>NOT(ISERROR(SEARCH("K nákupu",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 L14">
+  <conditionalFormatting sqref="F20">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Koupeno">
-      <formula>NOT(ISERROR(SEARCH("Koupeno",F14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Koupeno",F20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Na cestě">
-      <formula>NOT(ISERROR(SEARCH("Na cestě",F14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Na cestě",F20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="K nákupu">
-      <formula>NOT(ISERROR(SEARCH("K nákupu",F14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("K nákupu",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{79624631-DF31-4C85-9AAC-ED00B7886533}"/>
     <hyperlink ref="G14" r:id="rId2" xr:uid="{9DFECAE6-E2B4-4861-B2A6-70714366AC9A}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{FF2966B9-8AF2-478D-8F24-BD4A381F83EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F7772-BCEB-4770-BC6D-9568D0AC60E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188738E1-A00A-43AF-8E63-31F1DD4ACA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t xml:space="preserve">https://bit.ly/3Fn61Bc </t>
   </si>
@@ -86,13 +86,16 @@
     <t>https://www.laskakit.cz/dvoumotorovy-radic-tb6612fng/?gclid=Cj0KCQiAlKmeBhCkARIsAHy7WVuNh7z5h8IRajd8BqgRfK04_7RggMTipGvV0tUPsLPUbRQILlqR0AQaAup6EALw_wcB</t>
   </si>
   <si>
-    <t>https://bit.ly/3MQa25Y</t>
-  </si>
-  <si>
     <t>BEZ TME</t>
   </si>
   <si>
     <t>S TME</t>
+  </si>
+  <si>
+    <t>https://bit.ly/40A8IaE</t>
+  </si>
+  <si>
+    <t>QTR-1A REFLECTANCE SENSOR</t>
   </si>
 </sst>
 </file>
@@ -773,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D745B4-2266-4135-9D72-2FA50B106E4C}">
   <dimension ref="E4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -834,11 +837,14 @@
       </c>
     </row>
     <row r="7" spans="5:17">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -969,7 +975,7 @@
     </row>
     <row r="23" spans="5:13" ht="15.5">
       <c r="I23" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="3">
         <f>SUM(J6:J20)</f>
@@ -1000,7 +1006,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="3">
         <f>SUM(J14:J20)</f>
@@ -1043,7 +1049,7 @@
       <c r="M30" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F9:F11 F25 F6:F7">
+  <conditionalFormatting sqref="F6:F7 F9:F11 F25">
     <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F6)))</formula>
     </cfRule>
@@ -1054,56 +1060,57 @@
       <formula>NOT(ISERROR(SEARCH("K nákupu",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Koupeno">
+      <formula>NOT(ISERROR(SEARCH("Koupeno",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Na cestě">
+      <formula>NOT(ISERROR(SEARCH("Na cestě",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="K nákupu">
+      <formula>NOT(ISERROR(SEARCH("K nákupu",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Koupeno">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="K nákupu">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="K nákupu">
       <formula>NOT(ISERROR(SEARCH("K nákupu",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:G23">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Koupeno">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="K nákupu">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="K nákupu">
       <formula>NOT(ISERROR(SEARCH("K nákupu",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14 F14:F17">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Koupeno">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Na cestě">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Na cestě">
       <formula>NOT(ISERROR(SEARCH("Na cestě",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="K nákupu">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="K nákupu">
       <formula>NOT(ISERROR(SEARCH("K nákupu",F14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Koupeno">
-      <formula>NOT(ISERROR(SEARCH("Koupeno",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Na cestě">
-      <formula>NOT(ISERROR(SEARCH("Na cestě",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="K nákupu">
-      <formula>NOT(ISERROR(SEARCH("K nákupu",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{79624631-DF31-4C85-9AAC-ED00B7886533}"/>
     <hyperlink ref="G14" r:id="rId2" xr:uid="{9DFECAE6-E2B4-4861-B2A6-70714366AC9A}"/>
     <hyperlink ref="G20" r:id="rId3" xr:uid="{FF2966B9-8AF2-478D-8F24-BD4A381F83EF}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{8344A21A-667D-4925-A7C6-8088407FCA26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188738E1-A00A-43AF-8E63-31F1DD4ACA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B7BE4-C7CA-4238-A625-B6AC7BFAD88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t xml:space="preserve">https://bit.ly/3Fn61Bc </t>
   </si>
@@ -86,23 +86,23 @@
     <t>https://www.laskakit.cz/dvoumotorovy-radic-tb6612fng/?gclid=Cj0KCQiAlKmeBhCkARIsAHy7WVuNh7z5h8IRajd8BqgRfK04_7RggMTipGvV0tUPsLPUbRQILlqR0AQaAup6EALw_wcB</t>
   </si>
   <si>
-    <t>BEZ TME</t>
-  </si>
-  <si>
-    <t>S TME</t>
-  </si>
-  <si>
     <t>https://bit.ly/40A8IaE</t>
   </si>
   <si>
     <t>QTR-1A REFLECTANCE SENSOR</t>
+  </si>
+  <si>
+    <t>H-můstek L298N, dvoumotorový</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3LyOae7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,32 +185,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -302,12 +283,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -776,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D745B4-2266-4135-9D72-2FA50B106E4C}">
   <dimension ref="E4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -796,22 +777,22 @@
       </c>
     </row>
     <row r="5" spans="5:17" ht="15" thickBot="1">
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -825,26 +806,26 @@
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <v>10</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <v>16.670000000000002</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <f>I6*H6</f>
         <v>166.70000000000002</v>
       </c>
     </row>
     <row r="7" spans="5:17">
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -873,22 +854,22 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="5:17" ht="15" thickBot="1">
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -929,22 +910,22 @@
       </c>
     </row>
     <row r="19" spans="5:13" ht="15" thickBot="1">
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -970,16 +951,31 @@
       </c>
     </row>
     <row r="21" spans="5:13">
-      <c r="E21" s="7"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>58</v>
+      </c>
+      <c r="J21">
+        <f>H21*I21</f>
+        <v>116</v>
+      </c>
     </row>
     <row r="23" spans="5:13" ht="15.5">
-      <c r="I23" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="I23" s="15"/>
       <c r="J23" s="3">
-        <f>SUM(J6:J20)</f>
-        <v>1791.9</v>
+        <f>SUM(J14:J21)</f>
+        <v>1086</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1005,13 +1001,8 @@
     <row r="26" spans="5:13" ht="15.5">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="3">
-        <f>SUM(J14:J20)</f>
-        <v>970</v>
-      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1060,7 +1051,7 @@
       <formula>NOT(ISERROR(SEARCH("K nákupu",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="F20:F21">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F20)))</formula>
     </cfRule>
@@ -1082,7 +1073,7 @@
       <formula>NOT(ISERROR(SEARCH("K nákupu",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:G23">
+  <conditionalFormatting sqref="F22:G23 G21">
     <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F21)))</formula>
     </cfRule>
@@ -1109,8 +1100,9 @@
     <hyperlink ref="G14" r:id="rId2" xr:uid="{9DFECAE6-E2B4-4861-B2A6-70714366AC9A}"/>
     <hyperlink ref="G20" r:id="rId3" xr:uid="{FF2966B9-8AF2-478D-8F24-BD4A381F83EF}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{8344A21A-667D-4925-A7C6-8088407FCA26}"/>
+    <hyperlink ref="G21" r:id="rId5" xr:uid="{4E071158-C500-4B93-B8DB-C5DC1DFDD021}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69B7BE4-C7CA-4238-A625-B6AC7BFAD88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE25E176-45DF-4D77-AACA-A105F150670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
   </bookViews>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">https://bit.ly/3Fn61Bc </t>
-  </si>
-  <si>
-    <t>Závitové vložky M3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>K nákupu</t>
   </si>
   <si>
-    <t>TME</t>
-  </si>
-  <si>
     <t>název</t>
   </si>
   <si>
@@ -84,12 +75,6 @@
   </si>
   <si>
     <t>https://www.laskakit.cz/dvoumotorovy-radic-tb6612fng/?gclid=Cj0KCQiAlKmeBhCkARIsAHy7WVuNh7z5h8IRajd8BqgRfK04_7RggMTipGvV0tUPsLPUbRQILlqR0AQaAup6EALw_wcB</t>
-  </si>
-  <si>
-    <t>https://bit.ly/40A8IaE</t>
-  </si>
-  <si>
-    <t>QTR-1A REFLECTANCE SENSOR</t>
   </si>
   <si>
     <t>H-můstek L298N, dvoumotorový</t>
@@ -194,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -247,23 +232,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -282,13 +256,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -757,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D745B4-2266-4135-9D72-2FA50B106E4C}">
   <dimension ref="E4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -771,72 +743,32 @@
     <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:17" ht="15" thickBot="1">
-      <c r="G4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="5:17" ht="15" thickBot="1">
-      <c r="E5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="5:17">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="5:17">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="5:17">
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>10</v>
-      </c>
-      <c r="I6" s="14">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="J6" s="14">
-        <f>I6*H6</f>
-        <v>166.70000000000002</v>
-      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="5:17">
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="10">
-        <v>109.2</v>
-      </c>
-      <c r="J7">
-        <f>H7*I7</f>
-        <v>655.20000000000005</v>
-      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="9" spans="5:17">
       <c r="G9" s="1"/>
@@ -846,7 +778,7 @@
     </row>
     <row r="12" spans="5:17" ht="16" thickBot="1">
       <c r="G12" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -854,34 +786,34 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="5:17" ht="15" thickBot="1">
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="5:17" ht="15.5">
       <c r="E14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
@@ -906,38 +838,38 @@
     </row>
     <row r="18" spans="5:13" ht="16" thickBot="1">
       <c r="G18" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="5:13" ht="15" thickBot="1">
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="I19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="5:13" ht="15.5">
       <c r="E20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H20" s="3">
         <v>2</v>
@@ -952,13 +884,13 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -972,7 +904,6 @@
       </c>
     </row>
     <row r="23" spans="5:13" ht="15.5">
-      <c r="I23" s="15"/>
       <c r="J23" s="3">
         <f>SUM(J14:J21)</f>
         <v>1086</v>
@@ -1001,7 +932,7 @@
     <row r="26" spans="5:13" ht="15.5">
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -1073,7 +1004,7 @@
       <formula>NOT(ISERROR(SEARCH("K nákupu",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G23 G21">
+  <conditionalFormatting sqref="G21 F22:G23">
     <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Koupeno">
       <formula>NOT(ISERROR(SEARCH("Koupeno",F21)))</formula>
     </cfRule>
@@ -1096,13 +1027,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{79624631-DF31-4C85-9AAC-ED00B7886533}"/>
-    <hyperlink ref="G14" r:id="rId2" xr:uid="{9DFECAE6-E2B4-4861-B2A6-70714366AC9A}"/>
-    <hyperlink ref="G20" r:id="rId3" xr:uid="{FF2966B9-8AF2-478D-8F24-BD4A381F83EF}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{8344A21A-667D-4925-A7C6-8088407FCA26}"/>
-    <hyperlink ref="G21" r:id="rId5" xr:uid="{4E071158-C500-4B93-B8DB-C5DC1DFDD021}"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{9DFECAE6-E2B4-4861-B2A6-70714366AC9A}"/>
+    <hyperlink ref="G20" r:id="rId2" xr:uid="{FF2966B9-8AF2-478D-8F24-BD4A381F83EF}"/>
+    <hyperlink ref="G21" r:id="rId3" xr:uid="{4E071158-C500-4B93-B8DB-C5DC1DFDD021}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE25E176-45DF-4D77-AACA-A105F150670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFAB88-0382-4CD3-8B05-573AFECF39AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Drátek</t>
   </si>
   <si>
-    <t>http://rb.gy/9y54</t>
-  </si>
-  <si>
     <t>Vývojová deska ESP32</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>https://bit.ly/3LyOae7</t>
+  </si>
+  <si>
+    <t>https://bit.ly/441WPND</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -259,8 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -729,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D745B4-2266-4135-9D72-2FA50B106E4C}">
   <dimension ref="E4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -746,29 +745,12 @@
     <row r="4" spans="5:17">
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="5:17">
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
     <row r="6" spans="5:17">
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="5:17">
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="9" spans="5:17">
       <c r="G9" s="1"/>
@@ -807,13 +789,13 @@
     </row>
     <row r="14" spans="5:17" ht="15.5">
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
@@ -838,7 +820,7 @@
     </row>
     <row r="18" spans="5:13" ht="16" thickBot="1">
       <c r="G18" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="5:13" ht="15" thickBot="1">
@@ -863,13 +845,13 @@
     </row>
     <row r="20" spans="5:13" ht="15.5">
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3">
         <v>2</v>
@@ -884,13 +866,13 @@
     </row>
     <row r="21" spans="5:13">
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1027,9 +1009,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" xr:uid="{9DFECAE6-E2B4-4861-B2A6-70714366AC9A}"/>
-    <hyperlink ref="G20" r:id="rId2" xr:uid="{FF2966B9-8AF2-478D-8F24-BD4A381F83EF}"/>
-    <hyperlink ref="G21" r:id="rId3" xr:uid="{4E071158-C500-4B93-B8DB-C5DC1DFDD021}"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{FF2966B9-8AF2-478D-8F24-BD4A381F83EF}"/>
+    <hyperlink ref="G21" r:id="rId2" xr:uid="{4E071158-C500-4B93-B8DB-C5DC1DFDD021}"/>
+    <hyperlink ref="G14" r:id="rId3" xr:uid="{4CA50F5E-6006-4E9B-B30D-C173A76CC65F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/SUMEC - SEZNAM 4 MKII.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFAB88-0382-4CD3-8B05-573AFECF39AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F6500F-DC9E-4BB0-8C8A-55420C5F0CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A60CC677-705C-4E78-B7F3-48967EAC04A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>K nákupu</t>
   </si>
@@ -59,28 +59,7 @@
     <t>ceková cena</t>
   </si>
   <si>
-    <t>Drátek</t>
-  </si>
-  <si>
-    <t>Vývojová deska ESP32</t>
-  </si>
-  <si>
-    <t>Laska kit</t>
-  </si>
-  <si>
-    <t>H-můstek TB6612FNG</t>
-  </si>
-  <si>
-    <t>https://www.laskakit.cz/dvoumotorovy-radic-tb6612fng/?gclid=Cj0KCQiAlKmeBhCkARIsAHy7WVuNh7z5h8IRajd8BqgRfK04_7RggMTipGvV0tUPsLPUbRQILlqR0AQaAup6EALw_wcB</t>
-  </si>
-  <si>
-    <t>H-můstek L298N, dvoumotorový</t>
-  </si>
-  <si>
-    <t>https://bit.ly/3LyOae7</t>
-  </si>
-  <si>
-    <t>https://bit.ly/441WPND</t>
+    <t>GM</t>
   </si>
 </sst>
 </file>
@@ -729,7 +708,7 @@
   <dimension ref="E4:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I21" sqref="I20:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -759,54 +738,25 @@
       <c r="G10" s="1"/>
     </row>
     <row r="12" spans="5:17" ht="16" thickBot="1">
-      <c r="G12" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="5:17" ht="15" thickBot="1">
-      <c r="E13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="5:17" ht="15.5">
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>207</v>
-      </c>
-      <c r="J14" s="3">
-        <f>H14*I14</f>
-        <v>414</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="M14" s="1"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -820,7 +770,7 @@
     </row>
     <row r="18" spans="5:13" ht="16" thickBot="1">
       <c r="G18" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="5:13" ht="15" thickBot="1">
@@ -844,51 +794,32 @@
       </c>
     </row>
     <row r="20" spans="5:13" ht="15.5">
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>278</v>
-      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3">
         <f>H20*I20</f>
-        <v>556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:13">
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="E21" s="7"/>
       <c r="F21" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>58</v>
-      </c>
+      <c r="G21" s="6"/>
       <c r="J21">
         <f>H21*I21</f>
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:13" ht="15.5">
       <c r="J23" s="3">
         <f>SUM(J14:J21)</f>
-        <v>1086</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1008,12 +939,7 @@
       <formula>NOT(ISERROR(SEARCH("K nákupu",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{FF2966B9-8AF2-478D-8F24-BD4A381F83EF}"/>
-    <hyperlink ref="G21" r:id="rId2" xr:uid="{4E071158-C500-4B93-B8DB-C5DC1DFDD021}"/>
-    <hyperlink ref="G14" r:id="rId3" xr:uid="{4CA50F5E-6006-4E9B-B30D-C173A76CC65F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>